--- a/evaluation.xlsx
+++ b/evaluation.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b578f59d3879cdc/Documents/gitrepon/chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_6B21D1A5D3405B7407393A11595ED87656DC1E9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3ED1BF8-C1DC-4B67-83F6-0739DC134E93}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_6B21D1A5D3405B7407393A11595ED87656DC1E9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{735318AB-44E4-47D7-867A-0F1D84653270}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$F$1053</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12212,6 +12215,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12501,8 +12508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1053"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
